--- a/scrummetrics/excel/ProjectCreation.xlsx
+++ b/scrummetrics/excel/ProjectCreation.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\ScrumMetrics\scrummetrics\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD86AC7-0D92-4439-B592-276FA25C86BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42B09DC-E760-45E9-9CE4-139BDF1D57D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{50AA2015-A3D3-40F8-85C7-166167C19443}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50AA2015-A3D3-40F8-85C7-166167C19443}"/>
   </bookViews>
   <sheets>
-    <sheet name="Existing" sheetId="1" r:id="rId1"/>
+    <sheet name="Mandatory name" sheetId="1" r:id="rId1"/>
     <sheet name="Non existing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -37,13 +37,40 @@
     <t>P4ssword.</t>
   </si>
   <si>
-    <t>jositom</t>
-  </si>
-  <si>
     <t>asdfuser</t>
   </si>
   <si>
     <t>qweruser</t>
+  </si>
+  <si>
+    <t>angel_dlr</t>
+  </si>
+  <si>
+    <t>Pa$$w0rd</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>Testing Project</t>
+  </si>
+  <si>
+    <t>During this project we expect on having successful tests that will prove that our software works properly.</t>
+  </si>
+  <si>
+    <t>18 October 2021</t>
+  </si>
+  <si>
+    <t>Create optimal test cases to perform for the correct operation of the program</t>
+  </si>
+  <si>
+    <t>15 October 2021</t>
   </si>
 </sst>
 </file>
@@ -421,10 +448,14 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -433,21 +464,45 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -486,7 +541,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -494,7 +549,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>

--- a/scrummetrics/excel/ProjectCreation.xlsx
+++ b/scrummetrics/excel/ProjectCreation.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\ScrumMetrics\scrummetrics\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42B09DC-E760-45E9-9CE4-139BDF1D57D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D20B94-4965-4CDA-903F-BD34E086DB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50AA2015-A3D3-40F8-85C7-166167C19443}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{50AA2015-A3D3-40F8-85C7-166167C19443}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory name" sheetId="1" r:id="rId1"/>
-    <sheet name="Non existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Name length" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -34,15 +34,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>P4ssword.</t>
-  </si>
-  <si>
-    <t>asdfuser</t>
-  </si>
-  <si>
-    <t>qweruser</t>
-  </si>
-  <si>
     <t>angel_dlr</t>
   </si>
   <si>
@@ -71,6 +62,15 @@
   </si>
   <si>
     <t>15 October 2021</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>13 October 2021</t>
+  </si>
+  <si>
+    <t>Test Project Name should not be longer than 60 characters, so this is a new test for the length</t>
   </si>
 </sst>
 </file>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D43E62-999A-4405-A75E-282252FA2453}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,44 +465,44 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -523,39 +523,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FCACE5-2AE1-4210-B7BE-6C3360625C6F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scrummetrics/excel/ProjectCreation.xlsx
+++ b/scrummetrics/excel/ProjectCreation.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\ScrumMetrics\scrummetrics\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D20B94-4965-4CDA-903F-BD34E086DB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87458B4-88F5-4D09-9AFB-859CC99C0C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{50AA2015-A3D3-40F8-85C7-166167C19443}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{50AA2015-A3D3-40F8-85C7-166167C19443}"/>
   </bookViews>
   <sheets>
     <sheet name="Mandatory name" sheetId="1" r:id="rId1"/>
     <sheet name="Name length" sheetId="2" r:id="rId2"/>
+    <sheet name="End date format" sheetId="3" r:id="rId3"/>
+    <sheet name="End date greater" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -71,6 +73,27 @@
   </si>
   <si>
     <t>Test Project Name should not be longer than 60 characters, so this is a new test for the length</t>
+  </si>
+  <si>
+    <t>pepitom</t>
+  </si>
+  <si>
+    <t>P4ssword.</t>
+  </si>
+  <si>
+    <t>Test project 4</t>
+  </si>
+  <si>
+    <t>This is a description for this test</t>
+  </si>
+  <si>
+    <t>1 October 2021</t>
+  </si>
+  <si>
+    <t>31 October 2021</t>
+  </si>
+  <si>
+    <t>End date</t>
   </si>
 </sst>
 </file>
@@ -525,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FCACE5-2AE1-4210-B7BE-6C3360625C6F}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,4 +613,162 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1C49C7-827B-4513-82B0-FB6262E0935F}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA569D91-B857-4634-826C-4C7F7C611F49}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scrummetrics/excel/ProjectCreation.xlsx
+++ b/scrummetrics/excel/ProjectCreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\ScrumMetrics\scrummetrics\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87458B4-88F5-4D09-9AFB-859CC99C0C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FE00B4-A4A3-4396-82AD-12F48ACF85A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{50AA2015-A3D3-40F8-85C7-166167C19443}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
   <si>
     <t>Username</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>End date</t>
+  </si>
+  <si>
+    <t>16 October 2021</t>
   </si>
 </sst>
 </file>
@@ -700,13 +703,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA569D91-B857-4634-826C-4C7F7C611F49}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -768,6 +775,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
